--- a/Original Excel Files/BC.xlsx
+++ b/Original Excel Files/BC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\Desktop\SimLibSort\Original Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA77AB7-7628-44F3-B410-4FBBC3578644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1941D6-2FA2-4C1B-A91D-F8B69949DFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,29 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="244">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="147">
   <si>
     <t>BC101 .R4 1964</t>
   </si>
   <si>
-    <t>Rescher</t>
-  </si>
-  <si>
-    <t>Nicholas</t>
-  </si>
-  <si>
     <t>1964 H</t>
   </si>
   <si>
@@ -59,12 +41,6 @@
     <t>BC108 .B25 1965</t>
   </si>
   <si>
-    <t>Barker</t>
-  </si>
-  <si>
-    <t>Stephen F.</t>
-  </si>
-  <si>
     <t>1965 H</t>
   </si>
   <si>
@@ -74,12 +50,6 @@
     <t>BC108 .B29</t>
   </si>
   <si>
-    <t>Baum</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
     <t>1975 H</t>
   </si>
   <si>
@@ -89,18 +59,6 @@
     <t>BC108 .C67 1934</t>
   </si>
   <si>
-    <t>Cohen</t>
-  </si>
-  <si>
-    <t>Morris R.</t>
-  </si>
-  <si>
-    <t>Nagel</t>
-  </si>
-  <si>
-    <t>Ernest</t>
-  </si>
-  <si>
     <t>1934 H</t>
   </si>
   <si>
@@ -110,12 +68,6 @@
     <t>BC108 .C69 1968</t>
   </si>
   <si>
-    <t>Copi</t>
-  </si>
-  <si>
-    <t>Irving M.</t>
-  </si>
-  <si>
     <t>1968 P</t>
   </si>
   <si>
@@ -137,12 +89,6 @@
     <t>BC108 .E3 1959</t>
   </si>
   <si>
-    <t>Eaton</t>
-  </si>
-  <si>
-    <t>Ralph M.</t>
-  </si>
-  <si>
     <t>1959 P</t>
   </si>
   <si>
@@ -152,12 +98,6 @@
     <t>BC108 .H83 2003</t>
   </si>
   <si>
-    <t>Hurley</t>
-  </si>
-  <si>
-    <t>Patrick J.</t>
-  </si>
-  <si>
     <t>2003 H</t>
   </si>
   <si>
@@ -167,12 +107,6 @@
     <t>BC108 .K3 1969</t>
   </si>
   <si>
-    <t>Kahane</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
     <t>1969 H</t>
   </si>
   <si>
@@ -182,24 +116,12 @@
     <t>BC108 .S2 1966</t>
   </si>
   <si>
-    <t>Salmon</t>
-  </si>
-  <si>
-    <t>Wesley C.</t>
-  </si>
-  <si>
     <t>1963 P</t>
   </si>
   <si>
     <t>BC108 .S83</t>
   </si>
   <si>
-    <t>Stebbing</t>
-  </si>
-  <si>
-    <t>L. Susan</t>
-  </si>
-  <si>
     <t>1939 P</t>
   </si>
   <si>
@@ -218,36 +140,18 @@
     <t>BC108 .T48 1939</t>
   </si>
   <si>
-    <t>Thouless</t>
-  </si>
-  <si>
-    <t>Robert H.</t>
-  </si>
-  <si>
     <t>How to Think Straight: The Technique of Applying Logic Instead of Emotion</t>
   </si>
   <si>
     <t>BC108 .T55 2003</t>
   </si>
   <si>
-    <t>Tidman</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
     <t>A Modern Intro to Logic and Philosophy</t>
   </si>
   <si>
     <t>BC135 .C316 1995</t>
   </si>
   <si>
-    <t>Carnap</t>
-  </si>
-  <si>
-    <t>Rudolf</t>
-  </si>
-  <si>
     <t>1995 P</t>
   </si>
   <si>
@@ -257,18 +161,6 @@
     <t>BC135 .C344 1960</t>
   </si>
   <si>
-    <t>Basson</t>
-  </si>
-  <si>
-    <t>A.H.</t>
-  </si>
-  <si>
-    <t>O'Connor</t>
-  </si>
-  <si>
-    <t>D.J.</t>
-  </si>
-  <si>
     <t>1960 H</t>
   </si>
   <si>
@@ -287,15 +179,6 @@
     <t>BC135 .L5 1947</t>
   </si>
   <si>
-    <t>Lieber</t>
-  </si>
-  <si>
-    <t>Lillian R.</t>
-  </si>
-  <si>
-    <t>Hugh Gray</t>
-  </si>
-  <si>
     <t>1947 H</t>
   </si>
   <si>
@@ -305,12 +188,6 @@
     <t>BC135 .Q48 1962</t>
   </si>
   <si>
-    <t>Quine</t>
-  </si>
-  <si>
-    <t>Willard van Orman</t>
-  </si>
-  <si>
     <t>1962 P</t>
   </si>
   <si>
@@ -320,48 +197,30 @@
     <t>BC135 .Q485</t>
   </si>
   <si>
-    <t>Quine, W.V.</t>
-  </si>
-  <si>
     <t>Selected Logic Papers</t>
   </si>
   <si>
     <t>BC135 .W37 1969</t>
   </si>
   <si>
-    <t>Weinberg, J.R.</t>
-  </si>
-  <si>
     <t>An Examination of Logical Positivism</t>
   </si>
   <si>
     <t>BC15 .K55</t>
   </si>
   <si>
-    <t>Kneale, William and Martha Kneale</t>
-  </si>
-  <si>
     <t>The Development of Logic</t>
   </si>
   <si>
     <t>BC15 .S313</t>
   </si>
   <si>
-    <t>Scholz, Heinrich</t>
-  </si>
-  <si>
     <t>Concise History of Logic</t>
   </si>
   <si>
     <t>BC171 .B58 2005</t>
   </si>
   <si>
-    <t>Blackburn</t>
-  </si>
-  <si>
-    <t>Simon</t>
-  </si>
-  <si>
     <t>Truth: a Guide</t>
   </si>
   <si>
@@ -377,18 +236,6 @@
     <t>BC177 .B45 1996</t>
   </si>
   <si>
-    <t>Bierman</t>
-  </si>
-  <si>
-    <t>Arthur K.</t>
-  </si>
-  <si>
-    <t>Assali</t>
-  </si>
-  <si>
-    <t>Robin N.</t>
-  </si>
-  <si>
     <t>1996 P</t>
   </si>
   <si>
@@ -398,18 +245,6 @@
     <t>BC177 .C67 2000</t>
   </si>
   <si>
-    <t>Corbett</t>
-  </si>
-  <si>
-    <t>Edward P.J.</t>
-  </si>
-  <si>
-    <t>Eberly</t>
-  </si>
-  <si>
-    <t>Rosa A.</t>
-  </si>
-  <si>
     <t>2000 P</t>
   </si>
   <si>
@@ -419,21 +254,12 @@
     <t>BC177 .E66 1996</t>
   </si>
   <si>
-    <t>Ennis</t>
-  </si>
-  <si>
     <t>Critical Thinking</t>
   </si>
   <si>
     <t>BC177 .M3 1967</t>
   </si>
   <si>
-    <t>McGreal</t>
-  </si>
-  <si>
-    <t>Ian Philip</t>
-  </si>
-  <si>
     <t>1967 P</t>
   </si>
   <si>
@@ -443,24 +269,12 @@
     <t>BC177 .O4 1969</t>
   </si>
   <si>
-    <t>Olson</t>
-  </si>
-  <si>
-    <t>Robert G.</t>
-  </si>
-  <si>
     <t>Meaning and Argument: Elements of Logic</t>
   </si>
   <si>
     <t>BC177 .S37 1976</t>
   </si>
   <si>
-    <t>Scriven</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
     <t>1976 P</t>
   </si>
   <si>
@@ -470,12 +284,6 @@
     <t>BC177 .T495 1991</t>
   </si>
   <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Stephen Naylor</t>
-  </si>
-  <si>
     <t>1991 P</t>
   </si>
   <si>
@@ -485,12 +293,6 @@
     <t>BC177 .W743 1989</t>
   </si>
   <si>
-    <t>Wright</t>
-  </si>
-  <si>
-    <t>Larry</t>
-  </si>
-  <si>
     <t>1989 P</t>
   </si>
   <si>
@@ -500,30 +302,15 @@
     <t>BC181 .G58 1965</t>
   </si>
   <si>
-    <t>Goodman</t>
-  </si>
-  <si>
-    <t>Nelson</t>
-  </si>
-  <si>
     <t>1965 P</t>
   </si>
   <si>
     <t>Fact, Fiction, and Forecast</t>
   </si>
   <si>
-    <t>Goodman, Nelson</t>
-  </si>
-  <si>
     <t>BC198 .G35 1989</t>
   </si>
   <si>
-    <t>Gensler</t>
-  </si>
-  <si>
-    <t>Harry J.</t>
-  </si>
-  <si>
     <t>1989 H</t>
   </si>
   <si>
@@ -533,21 +320,12 @@
     <t>BC199 .M6 L54</t>
   </si>
   <si>
-    <t>Linsky, Leonard</t>
-  </si>
-  <si>
     <t>Reference and Modality</t>
   </si>
   <si>
     <t>BC199 .M6 P66</t>
   </si>
   <si>
-    <t>Loux</t>
-  </si>
-  <si>
-    <t>Michael (Ed)</t>
-  </si>
-  <si>
     <t>1979 P</t>
   </si>
   <si>
@@ -557,30 +335,12 @@
     <t>BC199 .P2 S67 2003</t>
   </si>
   <si>
-    <t>Sorenson</t>
-  </si>
-  <si>
-    <t>Roy</t>
-  </si>
-  <si>
     <t>A Brief History of the Paradox Philosophy and the Labyrinths of the Mind</t>
   </si>
   <si>
     <t>BC50 .F63 1991</t>
   </si>
   <si>
-    <t>Fogelin</t>
-  </si>
-  <si>
-    <t>Robert J.</t>
-  </si>
-  <si>
-    <t>Sinnott-Armstrong</t>
-  </si>
-  <si>
-    <t>Walter</t>
-  </si>
-  <si>
     <t>Understanding Arguments: An Introduction to Informal Logic</t>
   </si>
   <si>
@@ -596,12 +356,6 @@
     <t>BC6 .C58 1967</t>
   </si>
   <si>
-    <t>Gould</t>
-  </si>
-  <si>
-    <t>James A.</t>
-  </si>
-  <si>
     <t>Contenporary Readings in Logical Theory</t>
   </si>
   <si>
@@ -614,24 +368,12 @@
     <t>BC6 .I8 1968</t>
   </si>
   <si>
-    <t>Iseminger</t>
-  </si>
-  <si>
-    <t>Gary</t>
-  </si>
-  <si>
     <t>Logic and Philosophy: Selected Readings</t>
   </si>
   <si>
     <t>BC61 .L28 2002</t>
   </si>
   <si>
-    <t>Layman</t>
-  </si>
-  <si>
-    <t>Stephen C.</t>
-  </si>
-  <si>
     <t>2002 H</t>
   </si>
   <si>
@@ -641,18 +383,6 @@
     <t>BC71 .A6 1962</t>
   </si>
   <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>John M.</t>
-  </si>
-  <si>
-    <t>Johnstone, Jr.</t>
-  </si>
-  <si>
-    <t>Henry W.</t>
-  </si>
-  <si>
     <t>1962 H</t>
   </si>
   <si>
@@ -662,12 +392,6 @@
     <t>BC71 .B321950</t>
   </si>
   <si>
-    <t>Beardsley</t>
-  </si>
-  <si>
-    <t>Monroe C.</t>
-  </si>
-  <si>
     <t>1950 P</t>
   </si>
   <si>
@@ -677,21 +401,12 @@
     <t>BC71 .C68 1996</t>
   </si>
   <si>
-    <t>Burgess-Jackson</t>
-  </si>
-  <si>
-    <t>Keith</t>
-  </si>
-  <si>
     <t>Informal Logic</t>
   </si>
   <si>
     <t>BC71 .D981 1966</t>
   </si>
   <si>
-    <t>San Jose State Associates in Philosophy</t>
-  </si>
-  <si>
     <t>1966 P</t>
   </si>
   <si>
@@ -707,9 +422,6 @@
     <t>BC71 .Q48 1980</t>
   </si>
   <si>
-    <t>Willard Van Orman</t>
-  </si>
-  <si>
     <t>1980 P</t>
   </si>
   <si>
@@ -728,9 +440,6 @@
     <t>BC71 .S25</t>
   </si>
   <si>
-    <t>Merrilee H.</t>
-  </si>
-  <si>
     <t>1995 H</t>
   </si>
   <si>
@@ -740,32 +449,32 @@
     <t>BC71 .T42 1989</t>
   </si>
   <si>
-    <t>Teller</t>
-  </si>
-  <si>
     <t>A Modern Formal Logic Primer: Sentence Logic, Vol. I</t>
   </si>
   <si>
     <t>BC91 .W932 1960</t>
   </si>
   <si>
-    <t>Von Wright</t>
-  </si>
-  <si>
-    <t>Georg Henrik</t>
-  </si>
-  <si>
     <t>1960 P</t>
   </si>
   <si>
     <t>Treatise on Induction and Probability</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>LCC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,11 +507,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -856,34 +560,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1100,1416 +813,844 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="54.5" customWidth="1"/>
-    <col min="8" max="26" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="66" customWidth="1"/>
+    <col min="4" max="22" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="6" spans="1:3" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="B9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
+      <c r="B13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="15">
+        <v>1966</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="16">
+        <v>1966</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="16">
+        <v>1969</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="15">
+        <v>1969</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="15">
+        <v>1962</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="16">
+        <v>1962</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="16">
+        <v>1961</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="15">
+        <v>1961</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="17">
+        <v>2005</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="14">
+        <v>2005</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="C39" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="16">
+        <v>1965</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="16">
+        <v>1971</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="15">
+        <v>1971</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="C59" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="12">
-        <v>1966</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="15">
-        <v>1966</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="15">
-        <v>1969</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="12">
-        <v>1969</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="12">
-        <v>1962</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="15">
-        <v>1962</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="15">
-        <v>1961</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="12">
-        <v>1961</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="17">
-        <v>2005</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3">
-        <v>2005</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B67" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C67" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F45" s="15">
-        <v>1965</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" s="15">
-        <v>1971</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F48" s="12">
-        <v>1971</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>240</v>
+        <v>141</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="3"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="3"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
-      <c r="B73" s="3"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
-      <c r="B77" s="3"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
-      <c r="B78" s="3"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
-      <c r="B79" s="3"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
-      <c r="B81" s="3"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3415,7 +2556,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I1001">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E1001">
     <sortCondition ref="A1:A1001"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
